--- a/biology/Médecine/Pronosupination/Pronosupination.xlsx
+++ b/biology/Médecine/Pronosupination/Pronosupination.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pronosupination est le complexe de mouvements permettant une rotation d'une partie de membre par rapport à une autre. 
 L'exemple typique est celui du membre supérieur, notamment de la main, qui permet de mettre la paume de la main vers le haut (mouvement de supination) ou vers le bas (mouvement de pronation).
@@ -513,19 +525,15 @@
           <t>Description complète</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pronosupination est l'ensemble de deux mouvements :
 la pronation ;
 la supination.
 La pronosupination de l'avant-bras met en jeu l'articulation radio-ulnaire et l'articulation du coude.
 Un moyen mnémotechnique pour distinguer les deux mouvements est de se rappeler que la pronation permet de prendre et la supination de supplier.
-Pronation
-La pronation consiste en un mouvement de l'articulation du coude et de l'articulation radio-ulnaire afin d'entraîner une rotation médiale de la main (ou rotation interne, ce qui revient à tourner la paume de la main vers le bas). On définit aussi ce mouvement d'inclinaison ulnaire (le pouce s'oriente vers l'ulna).
-Contrairement aux idées reçues, au niveau du pied il ne peut y avoir de pronosupination car le pied ne fait pas de rotation externe ni interne mais donne cette illusion en combinant abduction et flexion dorsale (pour preuve il n'existe pas de rotateurs externes ni internes de pied, seuls les vendeurs de chaussures en sont convaincus), la pronation revient à mettre la plante du pied en dehors. L’éversion du pied se compose d'une flexion dorsale (flexion du pied) et d’une abduction, de telle sorte que la voûte plantaire regarde vers le dehors. Le muscle long extenseur des orteils est éverseur.
-Supination
-La supination est le mouvement inverse de la pronation, elle consiste donc en une mobilisation de l'articulation du coude et de l'articulation radio-ulnaire afin d'opérer une rotation latérale de la main (ou rotation externe, ce qui revient à tourner la paume de la main vers le haut).
-Au niveau du pied, la supination revient à mettre la plante du pied en dedans. L’inversion du pied se compose d'une flexion plantaire (extension du pied), d’une rotation interne (supination proprement dite) et d’une adduction, de telle sorte que la voûte plantaire regarde vers le dedans. Le muscle tibial postérieur long fléchisseur des orteils et long fléchisseur de l'hallux sont inverseurs.
 </t>
         </is>
       </c>
@@ -551,24 +559,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Conditions anatomiques de la pronosupination</t>
+          <t>Description complète</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Articulation radio-ulnaire proximale
-Liée à l'articulation huméro-radiale. La tête radiale peut rouler sur elle-même et en même temps s'incliner, dans le passage de la supination à la pronation.
-Articulation radio-ulnaire distale
-L'extrémité inférieure du radius roule sur la tête de l'ulna en décrivant un tronc de cône.
-La membrane interosseuse
-La membrane interosseuse est très résistante. Elle joue un rôle biomécanique triple :
-Elle est l'un des principaux freins de la pronosupination
-Elle maintient les rapports respectifs des deux os
-Elle transmet les forces de pression axiale subies par la main vers l'humérus
-La forme des deux os de l'avant-bras
-Les deux os de l'avant-bras doivent avoir une forme spéciale permettant leur croisement. Pour permettre la pronation, le radius n'est pas rectiligne mais courbé : c'est la courbure pronatrice. De même pour l'ulna, qui lui non plus n'est pas rectiligne.
-Longueur des deux os de l'avant-bras
-Si l'un des deux os de l'avant-bras est raccourci, la pronosupination peut devenir impossible par détérioration de l'un des points d'enroulement.
+          <t>Pronation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pronation consiste en un mouvement de l'articulation du coude et de l'articulation radio-ulnaire afin d'entraîner une rotation médiale de la main (ou rotation interne, ce qui revient à tourner la paume de la main vers le bas). On définit aussi ce mouvement d'inclinaison ulnaire (le pouce s'oriente vers l'ulna).
+Contrairement aux idées reçues, au niveau du pied il ne peut y avoir de pronosupination car le pied ne fait pas de rotation externe ni interne mais donne cette illusion en combinant abduction et flexion dorsale (pour preuve il n'existe pas de rotateurs externes ni internes de pied, seuls les vendeurs de chaussures en sont convaincus), la pronation revient à mettre la plante du pied en dehors. L’éversion du pied se compose d'une flexion dorsale (flexion du pied) et d’une abduction, de telle sorte que la voûte plantaire regarde vers le dehors. Le muscle long extenseur des orteils est éverseur.
 </t>
         </is>
       </c>
@@ -594,20 +597,317 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description complète</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Supination</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La supination est le mouvement inverse de la pronation, elle consiste donc en une mobilisation de l'articulation du coude et de l'articulation radio-ulnaire afin d'opérer une rotation latérale de la main (ou rotation externe, ce qui revient à tourner la paume de la main vers le haut).
+Au niveau du pied, la supination revient à mettre la plante du pied en dedans. L’inversion du pied se compose d'une flexion plantaire (extension du pied), d’une rotation interne (supination proprement dite) et d’une adduction, de telle sorte que la voûte plantaire regarde vers le dedans. Le muscle tibial postérieur long fléchisseur des orteils et long fléchisseur de l'hallux sont inverseurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pronosupination</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pronosupination</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Conditions anatomiques de la pronosupination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Articulation radio-ulnaire proximale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liée à l'articulation huméro-radiale. La tête radiale peut rouler sur elle-même et en même temps s'incliner, dans le passage de la supination à la pronation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pronosupination</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pronosupination</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Conditions anatomiques de la pronosupination</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Articulation radio-ulnaire distale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'extrémité inférieure du radius roule sur la tête de l'ulna en décrivant un tronc de cône.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pronosupination</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pronosupination</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Conditions anatomiques de la pronosupination</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La membrane interosseuse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La membrane interosseuse est très résistante. Elle joue un rôle biomécanique triple :
+Elle est l'un des principaux freins de la pronosupination
+Elle maintient les rapports respectifs des deux os
+Elle transmet les forces de pression axiale subies par la main vers l'humérus</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pronosupination</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pronosupination</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Conditions anatomiques de la pronosupination</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>La forme des deux os de l'avant-bras</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux os de l'avant-bras doivent avoir une forme spéciale permettant leur croisement. Pour permettre la pronation, le radius n'est pas rectiligne mais courbé : c'est la courbure pronatrice. De même pour l'ulna, qui lui non plus n'est pas rectiligne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pronosupination</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pronosupination</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Conditions anatomiques de la pronosupination</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Longueur des deux os de l'avant-bras</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si l'un des deux os de l'avant-bras est raccourci, la pronosupination peut devenir impossible par détérioration de l'un des points d'enroulement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pronosupination</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pronosupination</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Muscles mis en jeu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien évidemment, les muscles mis en jeu pour la pronation et la supination sont différents puisque les mouvements sont inverses. On dit que les muscles pronateurs et supinateurs d'une même articulation sont antagonistes.
 Ne sont mis ici que les muscles principaux, car chaque muscle de l'avant-bras a plus ou moins une action pronatrice ou supinatrice.
-Pronation
-Pour le membre supérieur :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pronosupination</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pronosupination</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Muscles mis en jeu</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pronation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le membre supérieur :
 Muscle rond pronateur : s'insère sur la face latérale du radius au sommet de la courbure pronatrice.
 Muscle carré pronateur : enroulé autour de l'extrémité inférieure de l'ulna (cubitus).
 Ils sont tous les deux innervés par le nerf médian.
-Supination
-Pour le membre supérieur :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pronosupination</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pronosupination</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Muscles mis en jeu</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Supination</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le membre supérieur :
 Muscle supinateur (m. court supinateur) : enroulé autour du col du radius, il intervient quelle que soit la position du coude.
 Muscle biceps brachial : il a une efficacité plus grande lorsque le coude est fléchi avec la main en pronation.
 Muscle brachio-radial (m. long supinateur) : c'est un muscle supinateur accessoire.
